--- a/Team-Data/2014-15/3-28-2014-15.xlsx
+++ b/Team-Data/2014-15/3-28-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
         <v>55</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.753</v>
+        <v>0.764</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -690,19 +757,19 @@
         <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
         <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
         <v>0.779</v>
@@ -711,13 +778,13 @@
         <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -741,10 +808,10 @@
         <v>102.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -768,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -938,7 +1005,7 @@
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>6</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -986,16 +1053,16 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1153,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.423</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
         <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.318</v>
+        <v>0.315</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1251,7 +1318,7 @@
         <v>23.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1263,13 +1330,13 @@
         <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1281,28 +1348,28 @@
         <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,22 +1408,22 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1415,7 +1482,7 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
         <v>7.8</v>
@@ -1430,34 +1497,34 @@
         <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
         <v>11.7</v>
       </c>
       <c r="S6" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T6" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
         <v>13.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X6" t="n">
         <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.4</v>
@@ -1466,16 +1533,16 @@
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1523,31 +1590,31 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX6" t="n">
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
       </c>
       <c r="BC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1663,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1699,28 +1766,28 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.625</v>
+        <v>0.616</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,16 +1843,16 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N8" t="n">
         <v>0.352</v>
@@ -1797,22 +1864,22 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1821,7 +1888,7 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
         <v>19.8</v>
@@ -1830,25 +1897,25 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1857,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1878,16 +1945,16 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.378</v>
+        <v>0.384</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>7.9</v>
@@ -1970,16 +2037,16 @@
         <v>24.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O9" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
@@ -1988,16 +2055,16 @@
         <v>32.6</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
@@ -2006,19 +2073,19 @@
         <v>6.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
         <v>18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2051,10 +2118,10 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2072,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2218,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.822</v>
+        <v>0.819</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2322,7 +2389,7 @@
         <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.478</v>
@@ -2334,7 +2401,7 @@
         <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.397</v>
+        <v>0.396</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
@@ -2343,13 +2410,13 @@
         <v>20.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
@@ -2358,13 +2425,13 @@
         <v>27.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y11" t="n">
         <v>3.4</v>
@@ -2382,7 +2449,7 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2439,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2553,52 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.676</v>
+        <v>0.681</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2615,31 +2682,31 @@
         <v>17</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,16 +2843,16 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2812,16 +2879,16 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
         <v>5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2952,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="n">
-        <v>0.271</v>
+        <v>0.268</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3140,13 +3207,13 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
         <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3155,13 +3222,13 @@
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>11</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3179,7 +3246,7 @@
         <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,7 +3374,7 @@
         <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
@@ -3325,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3337,7 +3404,7 @@
         <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,10 +3422,10 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
@@ -3367,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3549,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
@@ -3596,34 +3663,34 @@
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="O18" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R18" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T18" t="n">
         <v>42.1</v>
@@ -3635,13 +3702,13 @@
         <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
         <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z18" t="n">
         <v>22.2</v>
@@ -3653,10 +3720,10 @@
         <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,22 +3738,22 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3695,34 +3762,34 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>9</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
@@ -3880,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.521</v>
+        <v>0.528</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,70 +4027,70 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
         <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AA20" t="n">
         <v>18.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
         <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -4035,13 +4102,13 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,28 +4117,28 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,13 +4156,13 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -4124,22 +4191,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="n">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J21" t="n">
         <v>82.40000000000001</v>
@@ -4154,7 +4221,7 @@
         <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O21" t="n">
         <v>14.5</v>
@@ -4163,22 +4230,22 @@
         <v>18.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4190,19 +4257,19 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4217,7 +4284,7 @@
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>23</v>
@@ -4226,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.569</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.447</v>
@@ -4333,19 +4400,19 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O22" t="n">
         <v>18.6</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
@@ -4357,10 +4424,10 @@
         <v>47.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4396,13 +4463,13 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4423,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4435,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
@@ -4450,16 +4517,16 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>8</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.35</v>
@@ -4524,22 +4591,22 @@
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4590,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,28 +4678,28 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV23" t="n">
         <v>22</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4948,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -4960,22 +5027,22 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.653</v>
+        <v>0.648</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J26" t="n">
         <v>85.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O26" t="n">
         <v>15.8</v>
@@ -5073,7 +5140,7 @@
         <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5085,10 +5152,10 @@
         <v>45.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
@@ -5097,7 +5164,7 @@
         <v>4.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
         <v>18.3</v>
@@ -5106,16 +5173,16 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5133,10 +5200,10 @@
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.634</v>
+        <v>0.639</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,49 +5483,49 @@
         <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
@@ -5473,19 +5540,19 @@
         <v>102.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>6</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5551,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5688,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5700,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5727,7 +5794,7 @@
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.721</v>
+        <v>0.722</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T30" t="n">
         <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
         <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X30" t="n">
         <v>6</v>
@@ -5828,40 +5895,40 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
         <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>20</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,52 +5937,52 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>27</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
         <v>25</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2014-15</t>
+          <t>2015-03-28</t>
         </is>
       </c>
     </row>
